--- a/biology/Biologie cellulaire et moléculaire/Orthornavirae/Orthornavirae.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Orthornavirae/Orthornavirae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orthornavirae  sont un règne de virus à ARN codant une ARN polymérase ARN-dépendante (RdRp).
 Il s'agit de la classification du Comité international de taxonomie des virus.
@@ -513,7 +525,9 @@
           <t>Liste des embranchements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Duplornaviricota
 Kitrinoviricota
@@ -547,9 +561,11 @@
           <t>Exemples notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus Emesvirus zinderi (encore appelé Bactériophage MS2) a une importance historique en génomique car il s'agit du premier séquençage d'un gène en 1972, puis du génome d'un virus à ARN réalisé en 1976 par une équipe gantoise, ce qui a fait l'objet de deux publications dans Nature[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus Emesvirus zinderi (encore appelé Bactériophage MS2) a une importance historique en génomique car il s'agit du premier séquençage d'un gène en 1972, puis du génome d'un virus à ARN réalisé en 1976 par une équipe gantoise, ce qui a fait l'objet de deux publications dans Nature,.
 Les coronaviridae sont une famille de virus contenant notamment les Coronavirus, dont certains membres peuvent provoquer des maladies humaines graves.
 </t>
         </is>
